--- a/Recuperação de Informação/ES05.xlsx
+++ b/Recuperação de Informação/ES05.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zorak\Documents\5Periodo\Recuperação de Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3EF003-4C02-40A6-A830-666335E15F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C621B11D-9089-4199-B139-E510A54478D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DB51CADD-8B23-45DF-ADA5-8881F384A387}"/>
+    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" xr2:uid="{DB51CADD-8B23-45DF-ADA5-8881F384A387}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="3" r:id="rId2"/>
+    <sheet name="revoc prec q1" sheetId="4" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
+    <sheet name="revoc prec q2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>q1</t>
   </si>
@@ -231,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +247,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +279,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,15 +376,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,12 +412,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,15 +421,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,6 +455,2186 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'revoc prec q1'!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'revoc prec q1'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'revoc prec q1'!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BB7-49E3-A42F-1452F177A695}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'revoc prec q1'!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Duck Duck Go</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'revoc prec q1'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'revoc prec q1'!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0BB7-49E3-A42F-1452F177A695}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'revoc prec q1'!$G$2:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>bing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'revoc prec q1'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'revoc prec q1'!$G$4:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0BB7-49E3-A42F-1452F177A695}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1529556703"/>
+        <c:axId val="1529559615"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1529556703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1529559615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1529559615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1529556703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'revoc prec q2'!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'revoc prec q2'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'revoc prec q2'!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E28D-49B6-ACEF-22CA4FE0B439}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'revoc prec q2'!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Duck Duck Go</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'revoc prec q2'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'revoc prec q2'!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E28D-49B6-ACEF-22CA4FE0B439}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'revoc prec q2'!$G$2:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>bing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'revoc prec q2'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'revoc prec q2'!$G$4:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E28D-49B6-ACEF-22CA4FE0B439}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1650266719"/>
+        <c:axId val="1644738015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1650266719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1644738015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1644738015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1650266719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495669</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCBDF7D-DC2F-E881-C3F1-A09E891E1EA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7391400" y="502920"/>
+          <a:ext cx="4259949" cy="3756986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17214954-009D-F3FF-CAB0-E24261D0E997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775C41B3-F577-C484-0F2D-72E84E0448C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8DDB83-FAC6-4291-BECF-10D3138C5D21}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,34 +2948,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
@@ -776,22 +3008,22 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="2"/>
@@ -801,22 +3033,22 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2"/>
@@ -829,19 +3061,19 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="2"/>
@@ -854,19 +3086,19 @@
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="2"/>
@@ -876,22 +3108,22 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="2"/>
@@ -904,17 +3136,17 @@
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
@@ -925,17 +3157,17 @@
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
@@ -946,17 +3178,17 @@
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
@@ -967,17 +3199,17 @@
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
@@ -988,67 +3220,25 @@
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14">
-        <f>(3)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14">
-        <f>(2)/10</f>
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14">
-        <f>(2)/5</f>
-        <v>0.4</v>
-      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15">
-        <f>3/3</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
-      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
@@ -1057,23 +3247,179 @@
       <c r="I16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7B30F4-C5E6-4AEA-916D-14F03ACF7C42}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="19">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="19">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E4" s="19">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F4" s="19">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G4" s="19">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="19">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C5" s="19">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E5" s="19">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="19">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G5" s="19">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="19">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="19">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4075F4-46CC-4C59-A226-7A891984FA9A}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,32 +3430,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
@@ -1145,19 +3491,19 @@
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="6" t="s">
         <v>54</v>
       </c>
       <c r="H4" s="2"/>
@@ -1167,22 +3513,22 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="2"/>
@@ -1195,19 +3541,19 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="2"/>
@@ -1217,22 +3563,22 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="2"/>
@@ -1245,19 +3591,19 @@
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="6" t="s">
         <v>55</v>
       </c>
       <c r="H8" s="2"/>
@@ -1270,19 +3616,19 @@
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H9" s="2"/>
@@ -1295,19 +3641,19 @@
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H10" s="2"/>
@@ -1320,19 +3666,19 @@
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="2"/>
@@ -1345,19 +3691,19 @@
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="6" t="s">
         <v>58</v>
       </c>
       <c r="H12" s="2"/>
@@ -1367,74 +3713,32 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="6" t="s">
         <v>60</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14">
-        <f>(3)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14">
-        <f>(2)/10</f>
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14">
-        <f>(2)/5</f>
-        <v>0.4</v>
-      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15">
-        <f>3/3</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15">
-        <f>2/3</f>
-        <v>0.66666666666666663</v>
-      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
@@ -1455,4 +3759,156 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425CC159-4EBD-4AE0-B716-B3B334337BB9}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="19">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="19">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="19">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E4" s="19">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="19">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G4" s="19">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="19">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C5" s="19">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="19">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E5" s="19">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="F5" s="19">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G5" s="19">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="19">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="19">
+        <f>3/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="19">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Recuperação de Informação/ES05.xlsx
+++ b/Recuperação de Informação/ES05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zorak\Documents\5Periodo\Recuperação de Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C621B11D-9089-4199-B139-E510A54478D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F66CC96-C579-4AD7-AF1E-A13E34258BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" xr2:uid="{DB51CADD-8B23-45DF-ADA5-8881F384A387}"/>
+    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DB51CADD-8B23-45DF-ADA5-8881F384A387}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="63">
   <si>
     <t>q1</t>
   </si>
@@ -380,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,10 +406,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -421,22 +433,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,6 +797,7 @@
         <c:axId val="1529559615"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1262,6 +1266,7 @@
         <c:axId val="1644738015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2936,7 +2941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8DDB83-FAC6-4291-BECF-10D3138C5D21}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2948,34 +2953,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
@@ -3008,7 +3013,7 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -3033,7 +3038,7 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -3064,7 +3069,7 @@
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -3089,13 +3094,13 @@
       <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="9" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -3108,7 +3113,7 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3120,7 +3125,7 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -3263,10 +3268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7B30F4-C5E6-4AEA-916D-14F03ACF7C42}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3278,32 +3283,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -3326,83 +3331,212 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="19">
+      <c r="B4" s="11">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="11">
         <f>1/1</f>
         <v>1</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="11">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="11">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="11">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="11">
         <f>1/4</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="19">
+      <c r="B5" s="11">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="11">
         <f>2/2</f>
         <v>1</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="11">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="11">
         <f>2/4</f>
         <v>0.5</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="11">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="11">
         <f>2/5</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="19">
+      <c r="B6" s="11">
         <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="11">
         <f>3/5</f>
         <v>0.6</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="11">
         <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="11">
         <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="11">
         <v>0</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C12" s="11">
+        <f>1/1</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E12" s="11">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F12" s="11">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G12" s="11">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C13" s="11">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E13" s="11">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="11">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G13" s="11">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="D14" s="11">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:C2"/>
@@ -3430,32 +3564,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
@@ -3550,7 +3684,7 @@
       <c r="E6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -3594,7 +3728,7 @@
       <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -3650,7 +3784,7 @@
       <c r="E10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -3669,7 +3803,7 @@
       <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -3777,32 +3911,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -3825,78 +3959,78 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="19">
+      <c r="B4" s="11">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="11">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="11">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="11">
         <f>1/5</f>
         <v>0.2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="11">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="11">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="19">
+      <c r="B5" s="11">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="11">
         <f>2/4</f>
         <v>0.5</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="11">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="11">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="11">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="11">
         <f>2/7</f>
         <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="19">
+      <c r="B6" s="11">
         <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="11">
         <f>3/10</f>
         <v>0.3</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="11">
         <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="11">
         <v>0</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="11">
         <f>3/3</f>
         <v>1</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="11">
         <v>0</v>
       </c>
     </row>

--- a/Recuperação de Informação/ES05.xlsx
+++ b/Recuperação de Informação/ES05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zorak\Documents\5Periodo\Recuperação de Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F66CC96-C579-4AD7-AF1E-A13E34258BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105C495E-C335-491A-83ED-103FC04AA5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="612" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{DB51CADD-8B23-45DF-ADA5-8881F384A387}"/>
+    <workbookView minimized="1" xWindow="3348" yWindow="4068" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{DB51CADD-8B23-45DF-ADA5-8881F384A387}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="65">
   <si>
     <t>q1</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>Revocação</t>
+  </si>
+  <si>
+    <t>P@3</t>
+  </si>
+  <si>
+    <t>MAP</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,6 +421,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,6 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2941,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8DDB83-FAC6-4291-BECF-10D3138C5D21}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2953,34 +2963,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
@@ -3240,10 +3250,42 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="22">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="22">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="22"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
@@ -3260,9 +3302,14 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{DC361FAC-D5FC-496E-A0F9-981D4CD33818}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{332AD295-D16E-443F-9D29-40F797EB0C35}"/>
+    <hyperlink ref="F14" r:id="rId3" xr:uid="{90C69661-3D21-42A4-8A4F-4F9C12137B83}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3271,7 +3318,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3283,32 +3330,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -3407,32 +3454,32 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
@@ -3532,16 +3579,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -3553,7 +3600,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3564,32 +3611,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
@@ -3869,10 +3916,43 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="22">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="22">
+        <f>0/3</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="22">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="22"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
@@ -3890,6 +3970,9 @@
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" xr:uid="{0AAAC56E-942C-4584-95BE-4ACB1002FCA7}"/>
     <hyperlink ref="G11" r:id="rId2" xr:uid="{B5113386-D5C1-4ED2-B4DE-F60D7A75ADC9}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{4FC2867C-34D0-49ED-80DD-4CDF9366C4EE}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{3F54B7EE-D966-480F-8C12-60083A76EFDC}"/>
+    <hyperlink ref="F14" r:id="rId5" xr:uid="{AC9139BD-54E2-4725-9D30-AFD02606FA01}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3900,7 +3983,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G6"/>
+      <selection activeCell="C14" sqref="C8:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3911,32 +3994,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">

--- a/Recuperação de Informação/ES05.xlsx
+++ b/Recuperação de Informação/ES05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zorak\Documents\5Periodo\Recuperação de Informação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zorak\OneDrive\Documentos\Faculdade\5Periodo\5Periodo\Recuperação de Informação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105C495E-C335-491A-83ED-103FC04AA5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BFFD51-C53B-4933-8B6F-DF557DDEA583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3348" yWindow="4068" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{DB51CADD-8B23-45DF-ADA5-8881F384A387}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{DB51CADD-8B23-45DF-ADA5-8881F384A387}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
   <si>
     <t>q1</t>
   </si>
@@ -386,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,6 +425,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,7 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,37 +485,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -957,37 +928,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2526,13 +2467,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
+      <xdr:colOff>102870</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495669</xdr:colOff>
+      <xdr:colOff>95619</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>190826</xdr:rowOff>
     </xdr:to>
@@ -2557,8 +2498,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7391400" y="502920"/>
-          <a:ext cx="4259949" cy="3756986"/>
+          <a:off x="6865620" y="518160"/>
+          <a:ext cx="4259949" cy="3711266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2952,49 +2893,49 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3019,7 +2960,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3044,7 +2985,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3069,7 +3010,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3094,7 +3035,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3119,7 +3060,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -3144,7 +3085,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -3165,7 +3106,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -3186,7 +3127,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -3207,7 +3148,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3228,7 +3169,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3249,47 +3190,47 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="14">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="14">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="14">
         <v>0</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
@@ -3315,49 +3256,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7B30F4-C5E6-4AEA-916D-14F03ACF7C42}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="13" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
@@ -3377,7 +3318,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <f>1/3</f>
         <v>0.33333333333333331</v>
@@ -3403,7 +3344,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <f>2/3</f>
         <v>0.66666666666666663</v>
@@ -3429,7 +3370,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <f>3/3</f>
         <v>1</v>
@@ -3453,35 +3394,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>SUM(C4:C6)/3</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E4:E6)/3</f>
+        <v>0.27777777777777773</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G4:G6)/3</f>
+        <v>0.21666666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="13" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>62</v>
       </c>
@@ -3501,7 +3456,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <f>1/3</f>
         <v>0.33333333333333331</v>
@@ -3527,7 +3482,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <f>2/3</f>
         <v>0.66666666666666663</v>
@@ -3553,7 +3508,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <f>3/3</f>
         <v>1</v>
@@ -3577,18 +3532,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>SUM(C12:C14)/3</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -3599,48 +3560,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4075F4-46CC-4C59-A226-7A891984FA9A}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3665,7 +3626,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3690,7 +3651,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3715,7 +3676,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3740,7 +3701,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3765,7 +3726,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -3790,7 +3751,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -3815,7 +3776,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -3840,7 +3801,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -3865,7 +3826,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -3890,7 +3851,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -3915,48 +3876,48 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="14">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="14">
         <f>0/3</f>
         <v>0</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="14">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="22"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
@@ -3980,48 +3941,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425CC159-4EBD-4AE0-B716-B3B334337BB9}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C8:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="13" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
@@ -4041,7 +4003,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
         <f>1/3</f>
         <v>0.33333333333333331</v>
@@ -4067,7 +4029,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <f>2/3</f>
         <v>0.66666666666666663</v>
@@ -4093,7 +4055,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
         <f>3/3</f>
         <v>1</v>
@@ -4115,6 +4077,49 @@
       </c>
       <c r="G6" s="11">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>SUM(C4:C6)/3</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E4:E6)/3</f>
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="G7">
+        <f>SUM(G4:G6)/3</f>
+        <v>0.20634920634920637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R9" s="1"/>
+      <c r="S9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="1">
+        <f>(C7+'revoc prec q1'!C7)/2</f>
+        <v>0.65</v>
+      </c>
+      <c r="T10" s="1">
+        <f>(E7+'revoc prec q1'!E7)/2</f>
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="U10" s="1">
+        <f>(G7+'revoc prec q1'!G7)/2</f>
+        <v>0.21150793650793653</v>
       </c>
     </row>
   </sheetData>
